--- a/results/mp/deberta/corona/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
@@ -130,15 +130,15 @@
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>funny</t>
   </si>
   <si>
@@ -157,10 +157,10 @@
     <t>clean</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>credit</t>
@@ -1618,25 +1618,25 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6724137931034483</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1647,22 +1647,22 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N26">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1670,13 +1670,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.6666666666666666</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1852,25 +1852,25 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.5548780487804879</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L34">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1878,25 +1878,25 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.5441176470588235</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="10:17">
